--- a/Черновик.xlsx
+++ b/Черновик.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2681B563-A732-49F2-9C02-8F73E9247430}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,12 +409,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -500,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -556,11 +557,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -599,12 +613,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,7 +622,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -633,7 +651,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -781,7 +799,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -916,7 +934,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1051,7 +1069,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1235,14 +1253,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1278,7 +1296,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1373,7 +1391,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1445,7 +1463,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1517,7 +1535,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1558,7 +1576,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1603,7 +1620,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1647,7 +1663,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1723,13 +1739,13 @@
                   <c:v>326.07325183001586</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>100</c:v>
+                  <c:v>100.13243394098549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -1798,7 +1814,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -1850,7 +1866,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1866,7 +1881,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1961,7 +1976,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2033,7 +2048,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2105,7 +2120,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2146,7 +2161,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2189,7 +2203,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -2233,7 +2246,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2321,11 +2334,14 @@
                 <c:pt idx="3">
                   <c:v>77.129851311401225</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.68335395499895</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2390,11 +2406,14 @@
                 <c:pt idx="3">
                   <c:v>128.99807620479191</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.26498917590429</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2459,11 +2478,14 @@
                 <c:pt idx="3">
                   <c:v>119.94532431382271</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.184090810082253</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2504,7 +2526,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2547,7 +2568,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -2591,7 +2611,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2686,7 +2706,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2727,7 +2747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2768,7 +2787,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -2812,7 +2830,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2894,7 +2912,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -2963,7 +2981,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3015,7 +3033,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3031,7 +3048,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3113,7 +3130,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3182,7 +3199,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3234,7 +3251,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3250,7 +3266,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3332,7 +3348,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3401,7 +3417,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3453,7 +3469,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3469,7 +3484,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3551,7 +3566,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3620,7 +3635,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3672,7 +3687,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3688,7 +3702,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3770,7 +3784,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -3839,7 +3853,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -3891,7 +3905,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3907,7 +3920,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3989,7 +4002,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4058,7 +4071,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4110,7 +4123,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4126,7 +4138,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4208,7 +4220,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4277,7 +4289,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4329,7 +4341,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4345,7 +4356,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4427,7 +4438,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4496,7 +4507,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4548,7 +4559,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5139,7 +5149,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5180,7 +5190,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5216,7 +5226,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5254,7 +5264,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5290,7 +5300,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5326,7 +5336,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5367,7 +5377,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5408,7 +5418,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5451,7 +5461,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5494,7 +5504,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5537,7 +5547,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5580,7 +5590,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5623,7 +5633,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5676,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5944,14 +5954,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6652,11 +6662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R106" sqref="R106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6898,8 +6908,8 @@
         <v>49.999999999885276</v>
       </c>
       <c r="D11" s="10">
-        <f>B11</f>
-        <v>100</v>
+        <f>P19</f>
+        <v>100.13243394098549</v>
       </c>
       <c r="E11" s="10">
         <f>I2</f>
@@ -6936,25 +6946,25 @@
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="33" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="16" t="s">
@@ -6989,7 +6999,7 @@
         <f>F16*C16</f>
         <v>0.76175972655178859</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="32">
         <f>G16+1</f>
         <v>1.7617597265517886</v>
       </c>
@@ -7021,6 +7031,10 @@
         <f>N23*S23</f>
         <v>9.2172260836792983</v>
       </c>
+      <c r="P16" s="10">
+        <f>L16-S23</f>
+        <v>35.68335395499895</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -7046,7 +7060,7 @@
         <f t="shared" ref="G17:G18" si="3">F17*C17</f>
         <v>0.38087986327589429</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="32">
         <f t="shared" ref="H17:H18" si="4">G17+1</f>
         <v>1.3808798632758943</v>
       </c>
@@ -7078,6 +7092,10 @@
         <f t="shared" ref="O17:O18" si="11">N24*S24</f>
         <v>25.24087475423854</v>
       </c>
+      <c r="P17" s="10">
+        <f t="shared" ref="P17:P18" si="12">L17-S24</f>
+        <v>38.26498917590429</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -7103,7 +7121,7 @@
         <f t="shared" si="3"/>
         <v>0.25391990885059618</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="32">
         <f t="shared" si="4"/>
         <v>1.2539199088505961</v>
       </c>
@@ -7135,35 +7153,43 @@
         <f t="shared" si="11"/>
         <v>33.330236508425095</v>
       </c>
+      <c r="P18" s="10">
+        <f t="shared" si="12"/>
+        <v>26.184090810082253</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I19" s="11">
-        <f t="shared" ref="I19:O19" si="12">SUM(I16:I18)</f>
+      <c r="I19" s="28">
+        <f t="shared" ref="I19:O19" si="13">SUM(I16:I18)</f>
         <v>100.00000000022942</v>
       </c>
-      <c r="J19" s="13">
-        <f t="shared" si="12"/>
+      <c r="J19" s="23">
+        <f t="shared" si="13"/>
         <v>17.664514527387027</v>
       </c>
-      <c r="K19" s="13">
-        <f t="shared" si="12"/>
+      <c r="K19" s="23">
+        <f t="shared" si="13"/>
         <v>67.664514527501723</v>
       </c>
-      <c r="L19" s="13">
-        <f t="shared" si="12"/>
+      <c r="L19" s="23">
+        <f t="shared" si="13"/>
         <v>150.13243394087078</v>
       </c>
-      <c r="M19" s="13">
-        <f t="shared" si="12"/>
+      <c r="M19" s="23">
+        <f t="shared" si="13"/>
         <v>326.07325183001586</v>
       </c>
-      <c r="N19" s="13">
-        <f t="shared" si="12"/>
+      <c r="N19" s="23">
+        <f t="shared" si="13"/>
         <v>376.07325182990115</v>
       </c>
-      <c r="O19" s="13">
-        <f t="shared" si="12"/>
+      <c r="O19" s="23">
+        <f t="shared" si="13"/>
         <v>67.788337346342928</v>
+      </c>
+      <c r="P19" s="23">
+        <f>SUM(P16:P18)</f>
+        <v>100.13243394098549</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -7312,47 +7338,47 @@
         <v>2</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" ref="C24:C25" si="13">$B$23*C3</f>
+        <f t="shared" ref="C24:C25" si="14">$B$23*C3</f>
         <v>1.270877576262486</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" ref="D24:D25" si="14">C24*$B$11/$G$2</f>
+        <f t="shared" ref="D24:D25" si="15">C24*$B$11/$G$2</f>
         <v>2.541755152524972</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" ref="E24:E25" si="15">D24+1</f>
+        <f t="shared" ref="E24:E25" si="16">D24+1</f>
         <v>3.541755152524972</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" ref="G24:G25" si="16">$F$23*C3</f>
+        <f t="shared" ref="G24:G25" si="17">$F$23*C3</f>
         <v>1.1140765455285206</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" ref="H24:H25" si="17">G24*$B$10/$C$10</f>
+        <f t="shared" ref="H24:H25" si="18">G24*$B$10/$C$10</f>
         <v>2.4193395047015391</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" ref="I24:I25" si="18">H24*E24</f>
+        <f t="shared" ref="I24:I25" si="19">H24*E24</f>
         <v>8.5687081564838898</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" ref="J24:J25" si="19">I24+1</f>
+        <f t="shared" ref="J24:J25" si="20">I24+1</f>
         <v>9.5687081564838898</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" ref="L24:L25" si="20">$K$23*C3</f>
+        <f t="shared" ref="L24:L25" si="21">$K$23*C3</f>
         <v>0.97370522077319843</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" ref="M24:M25" si="21">L24*$B$9/$C$9</f>
+        <f t="shared" ref="M24:M25" si="22">L24*$B$9/$C$9</f>
         <v>0.17521981229254036</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" ref="N24:N25" si="22">M24*J24</f>
+        <f t="shared" ref="N24:N25" si="23">M24*J24</f>
         <v>1.6766272470612071</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" ref="O24" si="23">H17/N24</f>
+        <f t="shared" ref="O24" si="24">H17/N24</f>
         <v>0.82360576311538602</v>
       </c>
       <c r="P24" s="12">
@@ -7360,15 +7386,15 @@
         <v>24.115059452747477</v>
       </c>
       <c r="Q24" s="10">
-        <f t="shared" ref="Q24:Q25" si="24">$D$2*B3/100-P24</f>
+        <f t="shared" ref="Q24:Q25" si="25">$D$2*B3/100-P24</f>
         <v>9.1849405472525198</v>
       </c>
       <c r="R24" s="10">
-        <f t="shared" ref="R24:R25" si="25">$D$2*B3/100/(1+$B$84*O24)</f>
+        <f t="shared" ref="R24:R25" si="26">$D$2*B3/100/(1+$B$84*O24)</f>
         <v>18.245446402305127</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" ref="S24:S25" si="26">$B$84*O24*R24</f>
+        <f t="shared" ref="S24:S25" si="27">$B$84*O24*R24</f>
         <v>15.05455359769487</v>
       </c>
     </row>
@@ -7377,43 +7403,43 @@
         <v>3</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9063163643937289</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.8126327287874577</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.8126327287874577</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6711148182927809</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6290092570523083</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17.465088723562594</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18.465088723562594</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.4605578311597975</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.26282971843881053</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.8531740701616117</v>
       </c>
       <c r="O25" s="12">
@@ -7425,15 +7451,15 @@
         <v>26.636469972484974</v>
       </c>
       <c r="Q25" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.7635300275150243</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>26.532280848250061</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.8677191517499381</v>
       </c>
     </row>
@@ -7566,55 +7592,55 @@
         <v>2</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" ref="B31:B32" si="27">R24/$R$26</f>
+        <f t="shared" ref="B31:B32" si="28">R24/$R$26</f>
         <v>0.36490892804526537</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" ref="C31" si="28">B31*C3</f>
+        <f t="shared" ref="C31" si="29">B31*C3</f>
         <v>0.72981785609053074</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:D32" si="29">S24/$S$26</f>
+        <f t="shared" ref="D31:D32" si="30">S24/$S$26</f>
         <v>0.30109107195458817</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:E32" si="30">D31*C3</f>
+        <f t="shared" ref="E31:E32" si="31">D31*C3</f>
         <v>0.60218214390917635</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" ref="F31:F32" si="31">G17*R24</f>
+        <f t="shared" ref="F31:F32" si="32">G17*R24</f>
         <v>6.9493231311176347</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ref="G31:G32" si="32">F31/$F$33</f>
+        <f t="shared" ref="G31:G32" si="33">F31/$F$33</f>
         <v>0.39340583746829944</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" ref="H31:H32" si="33">C3*G31</f>
+        <f t="shared" ref="H31:H32" si="34">C3*G31</f>
         <v>0.78681167493659887</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ref="I31:I32" si="34">J24*S24</f>
+        <f t="shared" ref="I31:I32" si="35">J24*S24</f>
         <v>144.05262980248679</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" ref="J31:J32" si="35">I31/$I$33</f>
+        <f t="shared" ref="J31:J32" si="36">I31/$I$33</f>
         <v>0.38304407213635644</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" ref="K31:K32" si="36">C3*J31</f>
+        <f t="shared" ref="K31:K32" si="37">C3*J31</f>
         <v>0.76608814427271288</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" ref="L31:L32" si="37">E24*S24</f>
+        <f t="shared" ref="L31:L32" si="38">E24*S24</f>
         <v>53.31954277359916</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" ref="M31:M32" si="38">L31/$L$33</f>
+        <f t="shared" ref="M31:M32" si="39">L31/$L$33</f>
         <v>0.35515005901122543</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" ref="N31:N32" si="39">C3*M31</f>
+        <f t="shared" ref="N31:N32" si="40">C3*M31</f>
         <v>0.71030011802245085</v>
       </c>
     </row>
@@ -7623,7 +7649,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.53064561696378376</v>
       </c>
       <c r="C32" s="4">
@@ -7631,47 +7657,47 @@
         <v>1.5919368508913512</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.13735438303531389</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.41206314910594166</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6.7370743345860742</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.38139029092143617</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.1441708727643085</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>126.81304346557265</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.33720303916464256</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0116091174939277</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>33.051809961832191</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.22015102995565602</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.66045308986696805</v>
       </c>
     </row>
@@ -7766,7 +7792,7 @@
         <v>28.348426784761443</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C40" si="40">$C$43*B37^2+$B$43*B37+$A$43</f>
+        <f t="shared" ref="C37:C40" si="41">$C$43*B37^2+$B$43*B37+$A$43</f>
         <v>0.46384759796471242</v>
       </c>
       <c r="D37" s="1">
@@ -7774,7 +7800,7 @@
         <v>0.46378179133484482</v>
       </c>
       <c r="E37" s="15">
-        <f t="shared" ref="E37:E40" si="41">ABS(D37-C37)/C37*100</f>
+        <f t="shared" ref="E37:E40" si="42">ABS(D37-C37)/C37*100</f>
         <v>1.4187123131897817E-2</v>
       </c>
       <c r="F37">
@@ -7794,7 +7820,7 @@
         <v>29.803045705449062</v>
       </c>
       <c r="C38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.48685261038659922</v>
       </c>
       <c r="D38" s="1">
@@ -7802,7 +7828,7 @@
         <v>0.48603850731143122</v>
       </c>
       <c r="E38" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.16721756396079127</v>
       </c>
       <c r="F38">
@@ -7822,7 +7848,7 @@
         <v>34.085567891538929</v>
       </c>
       <c r="C39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.55703827276426032</v>
       </c>
       <c r="D39" s="1">
@@ -7830,14 +7856,14 @@
         <v>0.55696277804395389</v>
       </c>
       <c r="E39" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.3552878500035205E-2</v>
       </c>
       <c r="F39">
         <v>34.083268991092041</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39:G40" si="42">$C$43*F39^2+$B$43*F39+$A$43</f>
+        <f t="shared" ref="G39:G40" si="43">$C$43*F39^2+$B$43*F39+$A$43</f>
         <v>0.55699961242283402</v>
       </c>
     </row>
@@ -7850,7 +7876,7 @@
         <v>38.624984520802201</v>
       </c>
       <c r="C40">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.63543878813124299</v>
       </c>
       <c r="D40" s="1">
@@ -7858,14 +7884,14 @@
         <v>0.63459836450624008</v>
       </c>
       <c r="E40" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.13225878569271993</v>
       </c>
       <c r="F40">
         <v>38.624984520802201</v>
       </c>
       <c r="G40">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.63543878813124299</v>
       </c>
     </row>
@@ -7896,24 +7922,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7928,7 +7954,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -7942,11 +7968,11 @@
         <v>2</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" ref="C49:C50" si="43">$D$2*B3/100/(1+$B$48*O24)</f>
+        <f t="shared" ref="C49:C50" si="44">$D$2*B3/100/(1+$B$48*O24)</f>
         <v>33.299999999999997</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" ref="E49:E50" si="44">-O24*$D$2*B3/100/((1+$B$48*O24)^2)</f>
+        <f t="shared" ref="E49:E50" si="45">-O24*$D$2*B3/100/((1+$B$48*O24)^2)</f>
         <v>-27.426071911742355</v>
       </c>
     </row>
@@ -7955,38 +7981,38 @@
         <v>3</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>33.4</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-8.6295946426284402</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-214.76721680898854</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8002,7 +8028,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.803779169228829</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>24.250959108902038</v>
       </c>
@@ -8016,11 +8042,11 @@
         <v>2</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" ref="C55:C56" si="45">$D$2*B3/100/(1+$B$54*O24)</f>
+        <f t="shared" ref="C55:C56" si="46">$D$2*B3/100/(1+$B$54*O24)</f>
         <v>27.942246675637893</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" ref="E55:E56" si="46">-O24*$D$2*B3/100/((1+$B$54*O24)^2)</f>
+        <f t="shared" ref="E55:E56" si="47">-O24*$D$2*B3/100/((1+$B$54*O24)^2)</f>
         <v>-19.310689820165599</v>
       </c>
     </row>
@@ -8029,38 +8055,38 @@
         <v>3</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>31.504933264035323</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-7.6781146101575786</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>74.250959108902038</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-62.307881889242836</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8076,7 +8102,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.6759709421092301</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>8.4708280873114461</v>
       </c>
@@ -8090,11 +8116,11 @@
         <v>2</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" ref="C61:C62" si="47">$D$2*B3/100/(1+$B$60*O24)</f>
+        <f t="shared" ref="C61:C62" si="48">$D$2*B3/100/(1+$B$60*O24)</f>
         <v>22.019428075079286</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" ref="E61:E62" si="48">-O24*$D$2*B3/100/((1+$B$60*O24)^2)</f>
+        <f t="shared" ref="E61:E62" si="49">-O24*$D$2*B3/100/((1+$B$60*O24)^2)</f>
         <v>-11.991878303315113</v>
       </c>
     </row>
@@ -8103,38 +8129,38 @@
         <v>3</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>28.775429070122925</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-6.4053236487842353</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>58.470828087311446</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-27.892985339979315</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8150,7 +8176,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>5.5797288360950246</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.4275500010331399</v>
       </c>
@@ -8164,11 +8190,11 @@
         <v>2</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ref="C67:C68" si="49">$D$2*B3/100/(1+$B$66*O24)</f>
+        <f t="shared" ref="C67:C68" si="50">$D$2*B3/100/(1+$B$66*O24)</f>
         <v>18.894454154037899</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E68" si="50">-O24*$D$2*B3/100/((1+$B$66*O24)^2)</f>
+        <f t="shared" ref="E67:E68" si="51">-O24*$D$2*B3/100/((1+$B$66*O24)^2)</f>
         <v>-8.8296572085676477</v>
       </c>
     </row>
@@ -8177,38 +8203,38 @@
         <v>3</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>26.953367010900212</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-5.6198343216712656</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.42755000103314</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-19.467025741503225</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8224,7 +8250,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>5.2345468931009904</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>5.0422324371233174E-2</v>
       </c>
@@ -8238,11 +8264,11 @@
         <v>2</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" ref="C73:C74" si="51">$D$2*B3/100/(1+$B$72*O24)</f>
+        <f t="shared" ref="C73:C74" si="52">$D$2*B3/100/(1+$B$72*O24)</f>
         <v>18.268414175116433</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" ref="E73:E74" si="52">-O24*$D$2*B3/100/((1+$B$72*O24)^2)</f>
+        <f t="shared" ref="E73:E74" si="53">-O24*$D$2*B3/100/((1+$B$72*O24)^2)</f>
         <v>-8.2542352403818455</v>
       </c>
     </row>
@@ -8251,38 +8277,38 @@
         <v>3</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>26.547461256153809</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-5.4518444197142397</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.050422324371233</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-18.122011329331556</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8298,7 +8324,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>5.222288865216929</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>6.6271629378888974E-5</v>
       </c>
@@ -8312,11 +8338,11 @@
         <v>2</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" ref="C79:C80" si="53">$D$2*B3/100/(1+$B$78*O24)</f>
+        <f t="shared" ref="C79:C80" si="54">$D$2*B3/100/(1+$B$78*O24)</f>
         <v>18.24547659127397</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" ref="E79:E80" si="54">-O24*$D$2*B3/100/((1+$B$78*O24)^2)</f>
+        <f t="shared" ref="E79:E80" si="55">-O24*$D$2*B3/100/((1+$B$78*O24)^2)</f>
         <v>-8.2335204318020967</v>
       </c>
     </row>
@@ -8325,38 +8351,38 @@
         <v>3</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>26.532300815138477</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-5.4456194353485525</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000066271629379</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-18.0744136898468</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8372,7 +8398,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>5.2222727495595187</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.1471001926111057E-10</v>
       </c>
@@ -8386,11 +8412,11 @@
         <v>2</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" ref="C85:C86" si="55">$D$2*B3/100/(1+$B$84*O24)</f>
+        <f t="shared" ref="C85:C86" si="56">$D$2*B3/100/(1+$B$84*O24)</f>
         <v>18.245446402305127</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" ref="E85:E86" si="56">-O24*$D$2*B3/100/((1+$B$84*O24)^2)</f>
+        <f t="shared" ref="E85:E86" si="57">-O24*$D$2*B3/100/((1+$B$84*O24)^2)</f>
         <v>-8.2334931854558704</v>
       </c>
     </row>
@@ -8399,36 +8425,36 @@
         <v>3</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>26.532280848250061</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-5.4456112391475919</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.00000000011471</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-18.074351120260232</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="18" t="s">
         <v>70</v>
       </c>
@@ -8477,7 +8503,7 @@
         <v>0.38139029092143617</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98" si="57">SUM(B98:D98)</f>
+        <f t="shared" ref="E98" si="58">SUM(B98:D98)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -8545,17 +8571,17 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="24"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="18" t="s">
         <v>70</v>
       </c>
@@ -8652,17 +8678,17 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+      <c r="A111" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
+      <c r="A112" s="30"/>
       <c r="B112" s="18" t="s">
         <v>70</v>
       </c>
@@ -8742,9 +8768,18 @@
       <c r="A117" s="4">
         <v>4</v>
       </c>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
+      <c r="B117" s="10">
+        <f>P16</f>
+        <v>35.68335395499895</v>
+      </c>
+      <c r="C117" s="10">
+        <f>P17</f>
+        <v>38.26498917590429</v>
+      </c>
+      <c r="D117" s="10">
+        <f>P18</f>
+        <v>26.184090810082253</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8756,15 +8791,16 @@
     <mergeCell ref="B103:D103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -9977,24 +10013,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10009,7 +10045,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -10045,29 +10081,29 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-9.1366998534429076</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10083,7 +10119,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.473729209142419</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>25.253236880619497</v>
       </c>
@@ -10119,29 +10155,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>75.253236880619497</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-2.4550799427553764</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10157,7 +10193,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.0170504405255745</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>9.5940071079716773</v>
       </c>
@@ -10193,29 +10229,29 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>59.594007107971677</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-1.0170260006169385</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10231,7 +10267,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>4.7654706006725878</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.8599344062862997</v>
       </c>
@@ -10267,29 +10303,29 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.8599344062863</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-0.67083416454142786</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10305,7 +10341,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>4.354781136096074</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>8.7497441238085116E-2</v>
       </c>
@@ -10341,29 +10377,29 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.087497441238085</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-0.60960735236517749</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10379,7 +10415,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>4.3354390393192448</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>2.0676243559591967E-4</v>
       </c>
@@ -10415,29 +10451,29 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000206762435596</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-0.60673061589474819</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -10453,7 +10489,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>4.335393320364175</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.1585257198021282E-9</v>
       </c>
@@ -10489,11 +10525,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.000000001158526</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-0.60672381673094489</v>
       </c>
@@ -10506,7 +10542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -11743,24 +11779,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11775,7 +11811,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -11811,29 +11847,29 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-515.040106989896</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11849,7 +11885,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.793509769714882</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>24.280528257242182</v>
       </c>
@@ -11885,29 +11921,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>74.280528257242182</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-149.0992787180802</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11923,7 +11959,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.6560963509508833</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>8.5016728246400604</v>
       </c>
@@ -11959,29 +11995,29 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>58.50167282464006</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-66.605374709493688</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -11997,7 +12033,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>5.5552799378225037</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.4386724805480071</v>
       </c>
@@ -12033,29 +12069,29 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.438672480548007</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-46.413142767489049</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12071,7 +12107,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>5.2082264464948276</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>5.1250311704563956E-2</v>
       </c>
@@ -12107,29 +12143,29 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.051250311704564</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-43.17958445060254</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12145,7 +12181,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>5.1957973441006917</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>6.8543311442681443E-5</v>
       </c>
@@ -12181,29 +12217,29 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000068543311443</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-43.064182080623489</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -12219,7 +12255,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>5.1957807164249186</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.2285283901292132E-10</v>
       </c>
@@ -12255,11 +12291,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.000000000122853</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-43.064027712794989</v>
       </c>
@@ -12272,7 +12308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13509,24 +13545,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13541,7 +13577,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -13577,29 +13613,29 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-216.51341911060445</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13615,7 +13651,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.803272789084851</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>24.252424170448037</v>
       </c>
@@ -13651,29 +13687,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>74.252424170448037</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-62.807730701635933</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13689,7 +13725,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.6749863997187306</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>8.472368693040174</v>
       </c>
@@ -13725,29 +13761,29 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>58.472368693040174</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-28.113750733758256</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13763,7 +13799,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>5.5785112653481681</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.4281098384866127</v>
       </c>
@@ -13799,29 +13835,29 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.428109838486613</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-19.619554529869244</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13837,7 +13873,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>5.2332334897970441</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>5.0464067231594356E-2</v>
       </c>
@@ -13873,29 +13909,29 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.050464067231594</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-18.263425590883152</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13911,7 +13947,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>5.2209667605147292</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>6.6385513243005789E-5</v>
       </c>
@@ -13947,29 +13983,29 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000066385513243</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-18.215413877230919</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -13985,7 +14021,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>5.2209506190657544</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.1510792319313623E-10</v>
       </c>
@@ -14021,11 +14057,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.000000000115108</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-18.215350707157747</v>
       </c>
@@ -14037,7 +14073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -15274,24 +15310,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15306,7 +15342,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -15342,29 +15378,29 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-213.58072661819455</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15380,7 +15416,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.805047806607517</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>24.247319674757875</v>
       </c>
@@ -15416,29 +15452,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>74.247319674757875</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-61.980137017932464</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15454,7 +15490,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.6784197712202165</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>8.4670513271464571</v>
       </c>
@@ -15490,29 +15526,29 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>58.467051327146457</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-27.753427926837432</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15528,7 +15564,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>5.5827360949316471</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.4261948720548929</v>
       </c>
@@ -15564,29 +15600,29 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.426194872054893</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-19.373280240556689</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15602,7 +15638,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>5.2377818932517473</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>5.0322069839140227E-2</v>
       </c>
@@ -15638,29 +15674,29 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.05032206983914</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-18.036101079228068</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15676,7 +15712,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>5.2255445815115396</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>6.5999449773812557E-5</v>
       </c>
@@ -15712,29 +15748,29 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000065999449774</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-17.988829566550496</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -15750,7 +15786,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>5.2255285272472252</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.1375789199519204E-10</v>
       </c>
@@ -15786,11 +15822,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.000000000113758</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-17.988767557604142</v>
       </c>
@@ -15803,7 +15839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -17040,24 +17076,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17072,7 +17108,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -17108,29 +17144,29 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-214.33875736258145</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17146,7 +17182,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.803771958039439</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>24.2509833671579</v>
       </c>
@@ -17182,29 +17218,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>74.2509833671579</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-62.183458348572707</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17220,7 +17256,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.6759549537070368</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>8.4708591498662571</v>
       </c>
@@ -17256,29 +17292,29 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>58.470859149866257</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-27.83721488578524</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17294,7 +17330,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>5.5797066709138239</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.427563198134763</v>
       </c>
@@ -17330,29 +17366,29 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.427563198134763</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-19.428061259883847</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17368,7 +17404,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>5.2345219765603588</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>5.0423389422945775E-2</v>
       </c>
@@ -17404,29 +17440,29 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.050423389422946</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-18.085723412212729</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17442,7 +17478,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>5.2222637051812759</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>6.6274639237917654E-5</v>
       </c>
@@ -17478,29 +17514,29 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000066274639238</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-18.038219930253874</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -17516,7 +17552,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>5.2222475888121265</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.1471712468846818E-10</v>
       </c>
@@ -17552,11 +17588,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.000000000114717</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-18.038157482925115</v>
       </c>
@@ -17568,7 +17604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -18805,24 +18841,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -18837,7 +18873,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -18873,29 +18909,29 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-214.77105329496598</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -18911,7 +18947,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.803773970900872</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>24.250976702023053</v>
       </c>
@@ -18947,29 +18983,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>74.250976702023053</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-62.308907733544778</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -18985,7 +19021,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.6759593550735365</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>8.4708507644219821</v>
       </c>
@@ -19021,29 +19057,29 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>58.470850764421982</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-27.893392739977763</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -19059,7 +19095,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>5.5797127071264399</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.4275596776587065</v>
       </c>
@@ -19095,29 +19131,29 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.427559677658707</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-19.467279662314763</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -19133,7 +19169,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>5.2345287374481657</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>5.042310683954554E-2</v>
       </c>
@@ -19169,29 +19205,29 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.050423106839546</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-18.122236228963388</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -19207,7 +19243,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>5.2222705303000776</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>6.6273842477926337E-5</v>
       </c>
@@ -19243,29 +19279,29 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000066273842478</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-18.074637148636619</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -19281,7 +19317,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>5.2222544141188321</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.1472423011582578E-10</v>
       </c>
@@ -19317,11 +19353,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.000000000114724</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-18.074574576037371</v>
       </c>
@@ -19333,7 +19369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20570,24 +20606,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20602,7 +20638,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -20638,29 +20674,29 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-214.76976061738577</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20676,7 +20712,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.803775840817185</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>24.250970445574623</v>
       </c>
@@ -20712,29 +20748,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>74.250970445574623</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-62.30856354921773</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20750,7 +20786,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.6759634813392612</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>8.4708428007664835</v>
       </c>
@@ -20786,29 +20822,29 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>58.470842800766484</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-27.893256705770927</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20824,7 +20860,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>5.5797184065450844</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.4275563077183904</v>
       </c>
@@ -20860,29 +20896,29 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.42755630771839</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-19.46719524765005</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20898,7 +20934,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>5.2345351364729984</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>5.0422835363107765E-2</v>
       </c>
@@ -20934,29 +20970,29 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.050422835363108</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-18.122161616972935</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -20972,7 +21008,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>5.2222769912710731</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>6.6273075859157871E-5</v>
       </c>
@@ -21008,29 +21044,29 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000066273075859</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-18.07456302669458</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -21046,7 +21082,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>5.2222608752709494</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.1471001926111057E-10</v>
       </c>
@@ -21082,11 +21118,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.00000000011471</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-18.07450045512649</v>
       </c>
@@ -21098,7 +21134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -22066,7 +22102,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" ref="B31:B32" si="39">R25/$R$26</f>
+        <f t="shared" ref="B32" si="39">R25/$R$26</f>
         <v>0.53064590005088352</v>
       </c>
       <c r="C32" s="4">
@@ -22335,24 +22371,24 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="24" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22367,7 +22403,7 @@
         <f>$D$2*B2/100/(1+$B$48*O23)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="27">
         <f>C51-$E$2</f>
         <v>50</v>
       </c>
@@ -22403,29 +22439,29 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="30">
+      <c r="C51" s="28">
         <f>SUM(C48:C50)</f>
         <v>100</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <f>SUM(E48:E50)</f>
         <v>-214.76848193636624</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22441,7 +22477,7 @@
         <f>$D$2*B2/100/(1+$B$54*O23)</f>
         <v>14.803777572175933</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="27">
         <f>C57-$E$2</f>
         <v>24.250964585256668</v>
       </c>
@@ -22477,29 +22513,29 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="30">
+      <c r="C57" s="28">
         <f>SUM(C54:C56)</f>
         <v>74.250964585256668</v>
       </c>
-      <c r="E57" s="30">
+      <c r="E57" s="28">
         <f>SUM(E54:E56)</f>
         <v>-62.308221625501936</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22515,7 +22551,7 @@
         <f>$D$2*B2/100/(1+$B$60*O23)</f>
         <v>7.6759673409548368</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="27">
         <f>C63-$E$2</f>
         <v>8.4708352459216911</v>
       </c>
@@ -22551,29 +22587,29 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="30">
+      <c r="C63" s="28">
         <f>SUM(C60:C62)</f>
         <v>58.470835245921691</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <f>SUM(E60:E62)</f>
         <v>-27.89312090872761</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22589,7 +22625,7 @@
         <f>$D$2*B2/100/(1+$B$66*O23)</f>
         <v>5.5797237795235466</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="27">
         <f>C69-$E$2</f>
         <v>1.4275530836749226</v>
       </c>
@@ -22625,29 +22661,29 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="30">
+      <c r="C69" s="28">
         <f>SUM(C66:C68)</f>
         <v>51.427553083674923</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <f>SUM(E66:E68)</f>
         <v>-19.467110605398872</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E71" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22663,7 +22699,7 @@
         <f>$D$2*B2/100/(1+$B$72*O23)</f>
         <v>5.2345411847628105</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="27">
         <f>C75-$E$2</f>
         <v>5.0422574651001639E-2</v>
       </c>
@@ -22699,29 +22735,29 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="30">
+      <c r="C75" s="28">
         <f>SUM(C72:C74)</f>
         <v>50.050422574651002</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="28">
         <f>SUM(E72:E74)</f>
         <v>-18.1220866470826</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22737,7 +22773,7 @@
         <f>$D$2*B2/100/(1+$B$78*O23)</f>
         <v>5.222283099292774</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="27">
         <f>C81-$E$2</f>
         <v>6.6272338465012126E-5</v>
       </c>
@@ -22773,29 +22809,29 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="30">
+      <c r="C81" s="28">
         <f>SUM(C78:C80)</f>
         <v>50.000066272338465</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <f>SUM(E78:E80)</f>
         <v>-18.074488536982468</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22811,7 +22847,7 @@
         <f>$D$2*B2/100/(1+$B$84*O23)</f>
         <v>5.2222669834671924</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f>C87-$E$2</f>
         <v>1.1471712468846818E-10</v>
       </c>
@@ -22847,11 +22883,11 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="30">
+      <c r="C87" s="28">
         <f>SUM(C84:C86)</f>
         <v>50.000000000114717</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <f>SUM(E84:E86)</f>
         <v>-18.074425966418318</v>
       </c>

--- a/Черновик.xlsx
+++ b/Черновик.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2681B563-A732-49F2-9C02-8F73E9247430}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,9 @@
     <sheet name="Лист8" sheetId="8" r:id="rId8"/>
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="162">
   <si>
     <t>L</t>
   </si>
@@ -405,11 +405,212 @@
       <t>co</t>
     </r>
   </si>
+  <si>
+    <t>872,012129942378,</t>
+  </si>
+  <si>
+    <t>639,103494428027,</t>
+  </si>
+  <si>
+    <t>213,556775422614,</t>
+  </si>
+  <si>
+    <t>271,719098180843,</t>
+  </si>
+  <si>
+    <t>77,6655282427883,</t>
+  </si>
+  <si>
+    <t>956,522798184914,</t>
+  </si>
+  <si>
+    <t>704,692756868493,</t>
+  </si>
+  <si>
+    <t>239,027228036272,</t>
+  </si>
+  <si>
+    <t>302,602550804218,</t>
+  </si>
+  <si>
+    <t>88,1287114555538,</t>
+  </si>
+  <si>
+    <t>1046,95030845936,</t>
+  </si>
+  <si>
+    <t>775,235171812488,</t>
+  </si>
+  <si>
+    <t>266,829528026819,</t>
+  </si>
+  <si>
+    <t>336,146548226552,</t>
+  </si>
+  <si>
+    <t>99,7055618245621,</t>
+  </si>
+  <si>
+    <t>1143,52986061796,</t>
+  </si>
+  <si>
+    <t>850,95533526515,</t>
+  </si>
+  <si>
+    <t>297,106935262537,</t>
+  </si>
+  <si>
+    <t>372,50018773679,</t>
+  </si>
+  <si>
+    <t>112,480942264026,</t>
+  </si>
+  <si>
+    <t>1246,49602848517,</t>
+  </si>
+  <si>
+    <t>932,078964780627,</t>
+  </si>
+  <si>
+    <t>330,006236420446,</t>
+  </si>
+  <si>
+    <t>411,815297472306,</t>
+  </si>
+  <si>
+    <t>126,543197225769,</t>
+  </si>
+  <si>
+    <t>1356,0823815889,</t>
+  </si>
+  <si>
+    <t>1018,83253153822,</t>
+  </si>
+  <si>
+    <t>365,677554664018,</t>
+  </si>
+  <si>
+    <t>454,246213752426,</t>
+  </si>
+  <si>
+    <t>141,984103182309,</t>
+  </si>
+  <si>
+    <t>1472,52112022518,</t>
+  </si>
+  <si>
+    <t>1111,44289904655,</t>
+  </si>
+  <si>
+    <t>404,274152226244,</t>
+  </si>
+  <si>
+    <t>499,949554896923,</t>
+  </si>
+  <si>
+    <t>158,898809717703,</t>
+  </si>
+  <si>
+    <t>1596,04272459666,</t>
+  </si>
+  <si>
+    <t>1210,1369695754,</t>
+  </si>
+  <si>
+    <t>445,952226902434,</t>
+  </si>
+  <si>
+    <t>549,083992543587,</t>
+  </si>
+  <si>
+    <t>177,385771647811,</t>
+  </si>
+  <si>
+    <t>1726,87561863718,</t>
+  </si>
+  <si>
+    <t>1315,14133929946,</t>
+  </si>
+  <si>
+    <t>490,870703434624,</t>
+  </si>
+  <si>
+    <t>601,81002143221,</t>
+  </si>
+  <si>
+    <t>197,546672621894,</t>
+  </si>
+  <si>
+    <t>1865,24584901393,</t>
+  </si>
+  <si>
+    <t>1426,6819630255,</t>
+  </si>
+  <si>
+    <t>539,191020741825,</t>
+  </si>
+  <si>
+    <t>658,289728572652,</t>
+  </si>
+  <si>
+    <t>219,486340682594,</t>
+  </si>
+  <si>
+    <t>2011,37677968621,</t>
+  </si>
+  <si>
+    <t>1544,98382926674,</t>
+  </si>
+  <si>
+    <t>591,07691591829,</t>
+  </si>
+  <si>
+    <t>718,686562662695,</t>
+  </si>
+  <si>
+    <t>243,312656281557,</t>
+  </si>
+  <si>
+    <t>30,2230887887852,</t>
+  </si>
+  <si>
+    <t>34,7474374221993,</t>
+  </si>
+  <si>
+    <t>39,8186027936632,</t>
+  </si>
+  <si>
+    <t>45,4860209864503,</t>
+  </si>
+  <si>
+    <t>51,8019017278021,</t>
+  </si>
+  <si>
+    <t>58,8212542763162,</t>
+  </si>
+  <si>
+    <t>66,6019061454588,</t>
+  </si>
+  <si>
+    <t>75,2045146473071,</t>
+  </si>
+  <si>
+    <t>84,6925712800426,</t>
+  </si>
+  <si>
+    <t>95,1323990198536,</t>
+  </si>
+  <si>
+    <t>106,593142612612,</t>
+  </si>
+  <si>
+    <t>106,593142612612</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -623,15 +824,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +852,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -799,7 +1000,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -934,7 +1135,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1069,7 +1270,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1083,11 +1284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48145536"/>
-        <c:axId val="48146112"/>
+        <c:axId val="59935552"/>
+        <c:axId val="59936128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48145536"/>
+        <c:axId val="59935552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1145,13 +1346,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48146112"/>
+        <c:crossAx val="59936128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48146112"/>
+        <c:axId val="59936128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,7 +1409,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48145536"/>
+        <c:crossAx val="59935552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1253,14 +1454,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1296,7 +1497,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1391,7 +1592,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1463,7 +1664,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1535,7 +1736,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1549,11 +1750,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60206464"/>
-        <c:axId val="60207040"/>
+        <c:axId val="117896256"/>
+        <c:axId val="117896832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60206464"/>
+        <c:axId val="117896256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1582,13 +1783,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60207040"/>
+        <c:crossAx val="117896832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60207040"/>
+        <c:axId val="117896832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1626,7 +1827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60206464"/>
+        <c:crossAx val="117896256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1663,7 +1864,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1745,7 +1946,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -1814,7 +2015,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -1828,11 +2029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60208768"/>
-        <c:axId val="60209344"/>
+        <c:axId val="117898560"/>
+        <c:axId val="118145024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60208768"/>
+        <c:axId val="117898560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1844,12 +2045,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60209344"/>
+        <c:crossAx val="118145024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60209344"/>
+        <c:axId val="118145024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +2060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60208768"/>
+        <c:crossAx val="117898560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1881,7 +2082,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1976,7 +2177,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2048,7 +2249,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2120,7 +2321,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2134,11 +2335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60539456"/>
-        <c:axId val="60540032"/>
+        <c:axId val="118147328"/>
+        <c:axId val="118147904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60539456"/>
+        <c:axId val="118147328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2167,13 +2368,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60540032"/>
+        <c:crossAx val="118147904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60540032"/>
+        <c:axId val="118147904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60539456"/>
+        <c:crossAx val="118147328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2246,7 +2447,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2341,7 +2542,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2413,7 +2614,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2485,7 +2686,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2499,11 +2700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60542336"/>
-        <c:axId val="60542912"/>
+        <c:axId val="118150208"/>
+        <c:axId val="118150784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60542336"/>
+        <c:axId val="118150208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2532,13 +2733,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60542912"/>
+        <c:crossAx val="118150784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60542912"/>
+        <c:axId val="118150784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60542336"/>
+        <c:crossAx val="118150208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2611,7 +2812,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2706,7 +2907,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2720,11 +2921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60545216"/>
-        <c:axId val="60545792"/>
+        <c:axId val="144891904"/>
+        <c:axId val="144892480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60545216"/>
+        <c:axId val="144891904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2753,13 +2954,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60545792"/>
+        <c:crossAx val="144892480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60545792"/>
+        <c:axId val="144892480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -2793,7 +2994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60545216"/>
+        <c:crossAx val="144891904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2830,7 +3031,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2912,7 +3113,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -2981,7 +3182,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -2995,11 +3196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48148416"/>
-        <c:axId val="48148992"/>
+        <c:axId val="59938432"/>
+        <c:axId val="59939008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48148416"/>
+        <c:axId val="59938432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3011,12 +3212,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48148992"/>
+        <c:crossAx val="59939008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48148992"/>
+        <c:axId val="59939008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,13 +3227,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48148416"/>
+        <c:crossAx val="59938432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3048,7 +3250,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3130,7 +3332,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3199,7 +3401,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3213,11 +3415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48151296"/>
-        <c:axId val="48151872"/>
+        <c:axId val="60867136"/>
+        <c:axId val="60867712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48151296"/>
+        <c:axId val="60867136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3229,12 +3431,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48151872"/>
+        <c:crossAx val="60867712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48151872"/>
+        <c:axId val="60867712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +3446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48151296"/>
+        <c:crossAx val="60867136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3266,7 +3468,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3348,7 +3550,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3417,7 +3619,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3431,11 +3633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59410112"/>
-        <c:axId val="59410688"/>
+        <c:axId val="60870016"/>
+        <c:axId val="60870592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59410112"/>
+        <c:axId val="60870016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3447,12 +3649,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59410688"/>
+        <c:crossAx val="60870592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59410688"/>
+        <c:axId val="60870592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3462,7 +3664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59410112"/>
+        <c:crossAx val="60870016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3484,7 +3686,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3566,7 +3768,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3635,7 +3837,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3649,11 +3851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59412992"/>
-        <c:axId val="59413568"/>
+        <c:axId val="60872896"/>
+        <c:axId val="60873472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59412992"/>
+        <c:axId val="60872896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3665,12 +3867,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59413568"/>
+        <c:crossAx val="60873472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59413568"/>
+        <c:axId val="60873472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3680,7 +3882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59412992"/>
+        <c:crossAx val="60872896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3702,7 +3904,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3784,7 +3986,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -3853,7 +4055,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -3867,11 +4069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59415872"/>
-        <c:axId val="59678720"/>
+        <c:axId val="61711488"/>
+        <c:axId val="61712064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59415872"/>
+        <c:axId val="61711488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3883,12 +4085,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59678720"/>
+        <c:crossAx val="61712064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59678720"/>
+        <c:axId val="61712064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3898,7 +4100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59415872"/>
+        <c:crossAx val="61711488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3920,7 +4122,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4002,7 +4204,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4071,7 +4273,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4085,11 +4287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59681024"/>
-        <c:axId val="59681600"/>
+        <c:axId val="61714368"/>
+        <c:axId val="61714944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59681024"/>
+        <c:axId val="61714368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4101,12 +4303,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59681600"/>
+        <c:crossAx val="61714944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59681600"/>
+        <c:axId val="61714944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59681024"/>
+        <c:crossAx val="61714368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4138,7 +4340,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4220,7 +4422,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4289,7 +4491,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4303,11 +4505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59683904"/>
-        <c:axId val="59684480"/>
+        <c:axId val="61717248"/>
+        <c:axId val="61717824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59683904"/>
+        <c:axId val="61717248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4319,12 +4521,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59684480"/>
+        <c:crossAx val="61717824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59684480"/>
+        <c:axId val="61717824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,7 +4536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59683904"/>
+        <c:crossAx val="61717248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4356,7 +4558,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4438,7 +4640,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4507,7 +4709,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4521,11 +4723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60203008"/>
-        <c:axId val="60203584"/>
+        <c:axId val="117892800"/>
+        <c:axId val="117893376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60203008"/>
+        <c:axId val="117892800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4537,12 +4739,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60203584"/>
+        <c:crossAx val="117893376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60203584"/>
+        <c:axId val="117893376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +4754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60203008"/>
+        <c:crossAx val="117892800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5149,7 +5351,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,7 +5392,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5226,7 +5428,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5264,7 +5466,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5300,7 +5502,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5336,7 +5538,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5377,7 +5579,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5418,7 +5620,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5461,7 +5663,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5504,7 +5706,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5547,7 +5749,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5590,7 +5792,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5633,7 +5835,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5676,7 +5878,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5954,14 +6156,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6662,11 +6864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6946,25 +7148,25 @@
       <c r="H15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="16" t="s">
@@ -6999,7 +7201,7 @@
         <f>F16*C16</f>
         <v>0.76175972655178859</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="30">
         <f>G16+1</f>
         <v>1.7617597265517886</v>
       </c>
@@ -7060,7 +7262,7 @@
         <f t="shared" ref="G17:G18" si="3">F17*C17</f>
         <v>0.38087986327589429</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="30">
         <f t="shared" ref="H17:H18" si="4">G17+1</f>
         <v>1.3808798632758943</v>
       </c>
@@ -7121,7 +7323,7 @@
         <f t="shared" si="3"/>
         <v>0.25391990885059618</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <f t="shared" si="4"/>
         <v>1.2539199088505961</v>
       </c>
@@ -8444,17 +8646,17 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="31" t="s">
+      <c r="B95" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="18" t="s">
         <v>70</v>
       </c>
@@ -8571,17 +8773,17 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B103" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="18" t="s">
         <v>70</v>
       </c>
@@ -8678,17 +8880,17 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="30"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="18" t="s">
         <v>70</v>
       </c>
@@ -8796,12 +8998,917 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="44" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="62" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="69" max="71" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="78" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="85" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="95" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="104" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>47400.568122108802</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7327.4893465001096</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2150.2338569273102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>49182.652794389498</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7813.3496946540899</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2332.9569837948002</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>50987.5900259583</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8318.8920994679593</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2526.3710715806101</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>52814.627470986401</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8844.28269451919</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2730.77425983496</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>54663.020542590297</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9389.6699264517501</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2946.4580953306599</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>56532.033154902303</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9955.1848736318298</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3173.7071614015699</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>58420.938385410504</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10540.9415930334</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3412.7987397789698</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>60329.019062929903</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11147.037491897099</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3664.0025042718198</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>62255.568286310001</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11773.553720907001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3927.5802455224298</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>64199.8898787383</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12420.5555858351</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4203.7856259705404</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>66161.298782247395</v>
+      </c>
+      <c r="B12" s="2">
+        <v>13088.0929747955</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4492.86396407761</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>66161.298782247395</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13088.0929747955</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4492.86396407761</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A2/$K2</f>
+        <v>24947.667432688842</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:I15" si="0">B2/$K2</f>
+        <v>3856.5733402632159</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1131.7020299617423</v>
+      </c>
+      <c r="D15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:I25" si="1">A3/$K3</f>
+        <v>25750.079997062567</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>4090.7590024366964</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1221.4434470129845</v>
+      </c>
+      <c r="D16" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>26556.036471853284</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>4332.7563018062292</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1315.8182664482345</v>
+      </c>
+      <c r="D17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>27365.091953878964</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>4582.5298935332594</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1414.9089429196686</v>
+      </c>
+      <c r="D18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>28176.814712675412</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>4840.0360445627575</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>1518.7928326446702</v>
+      </c>
+      <c r="D19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>28990.786233283234</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>5105.2230121188868</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>1627.5421340520872</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>29806.601217046176</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>5378.0314250170404</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>1741.223846826005</v>
+      </c>
+      <c r="D21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>30623.867544634468</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>5658.3946659376143</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>1859.8997483613298</v>
+      </c>
+      <c r="D22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>31442.206205207072</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>5946.2392529833342</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1983.6263866274899</v>
+      </c>
+      <c r="D23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>A11/$K11</f>
+        <v>32261.251195345882</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:I24" si="2">B11/$K11</f>
+        <v>6241.485219012613</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>2112.4550884274072</v>
+      </c>
+      <c r="D24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>33080.649391123698</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>6544.0464873977498</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>2246.431982038805</v>
+      </c>
+      <c r="D25" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A13/$K13</f>
+        <v>33080.649391123698</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:I26" si="3">B13/$K13</f>
+        <v>6544.0464873977498</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>2246.431982038805</v>
+      </c>
+      <c r="D26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10542,7 +11649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -12308,7 +13415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -14073,7 +15180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -15839,7 +16946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -17604,7 +18711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -19369,7 +20476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21134,7 +22241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/Черновик.xlsx
+++ b/Черновик.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EA9940-AE71-4A92-A52D-1A19DE25F093}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
     <sheet name="Лист2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -610,7 +611,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -852,7 +853,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1000,7 +1001,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1135,7 +1136,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1270,7 +1271,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1454,14 +1455,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1497,7 +1498,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1592,7 +1593,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1664,7 +1665,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1736,7 +1737,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1864,7 +1865,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1946,7 +1947,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2015,7 +2016,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2082,7 +2083,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2177,7 +2178,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2249,7 +2250,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2321,7 +2322,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2447,7 +2448,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2542,7 +2543,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2614,7 +2615,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2686,7 +2687,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2812,7 +2813,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2907,7 +2908,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3031,7 +3032,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3113,7 +3114,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3182,7 +3183,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3234,7 +3235,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3250,7 +3250,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3332,7 +3332,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3401,7 +3401,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3468,7 +3468,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3550,7 +3550,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3619,7 +3619,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3686,7 +3686,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3768,7 +3768,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3837,7 +3837,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3986,7 +3986,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4055,7 +4055,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4204,7 +4204,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4273,7 +4273,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4340,7 +4340,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4422,7 +4422,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4491,7 +4491,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4558,7 +4558,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4640,7 +4640,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4709,7 +4709,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -5351,7 +5351,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,7 +5392,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5428,7 +5428,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5466,7 +5466,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5502,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,7 +5538,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5579,7 +5579,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5620,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5663,7 +5663,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5706,7 +5706,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5749,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5792,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +5835,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5878,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6156,14 +6156,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6864,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8999,10 +8999,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -9904,11 +9904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11649,7 +11649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13415,7 +13415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -15180,7 +15180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -16946,7 +16946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -18711,7 +18711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -20476,7 +20476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22241,7 +22241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/Черновик.xlsx
+++ b/Черновик.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EA9940-AE71-4A92-A52D-1A19DE25F093}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
     <sheet name="Лист2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -611,7 +610,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -853,7 +852,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1001,7 +1000,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1136,7 +1135,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1271,7 +1270,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1285,11 +1284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59935552"/>
-        <c:axId val="59936128"/>
+        <c:axId val="49974656"/>
+        <c:axId val="49975232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59935552"/>
+        <c:axId val="49974656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1347,13 +1346,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59936128"/>
+        <c:crossAx val="49975232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59936128"/>
+        <c:axId val="49975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1409,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59935552"/>
+        <c:crossAx val="49974656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1455,14 +1454,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1498,7 +1497,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1593,7 +1592,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1665,7 +1664,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1737,7 +1736,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1751,11 +1750,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117896256"/>
-        <c:axId val="117896832"/>
+        <c:axId val="109131392"/>
+        <c:axId val="109131968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117896256"/>
+        <c:axId val="109131392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1784,13 +1783,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117896832"/>
+        <c:crossAx val="109131968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117896832"/>
+        <c:axId val="109131968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1828,7 +1827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117896256"/>
+        <c:crossAx val="109131392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1865,7 +1864,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1947,7 +1946,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2016,7 +2015,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2030,11 +2029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117898560"/>
-        <c:axId val="118145024"/>
+        <c:axId val="109166592"/>
+        <c:axId val="109167168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117898560"/>
+        <c:axId val="109166592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2046,12 +2045,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118145024"/>
+        <c:crossAx val="109167168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118145024"/>
+        <c:axId val="109167168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117898560"/>
+        <c:crossAx val="109166592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2083,7 +2082,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2178,7 +2177,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2250,7 +2249,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2322,7 +2321,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2336,11 +2335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118147328"/>
-        <c:axId val="118147904"/>
+        <c:axId val="109169472"/>
+        <c:axId val="109170048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118147328"/>
+        <c:axId val="109169472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2369,13 +2368,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118147904"/>
+        <c:crossAx val="109170048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118147904"/>
+        <c:axId val="109170048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118147328"/>
+        <c:crossAx val="109169472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2448,7 +2447,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2543,7 +2542,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2615,7 +2614,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2687,7 +2686,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2701,11 +2700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118150208"/>
-        <c:axId val="118150784"/>
+        <c:axId val="109172352"/>
+        <c:axId val="109172928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118150208"/>
+        <c:axId val="109172352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2734,13 +2733,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118150784"/>
+        <c:crossAx val="109172928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118150784"/>
+        <c:axId val="109172928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118150208"/>
+        <c:crossAx val="109172352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,7 +2812,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2908,7 +2907,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2922,11 +2921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144891904"/>
-        <c:axId val="144892480"/>
+        <c:axId val="144826944"/>
+        <c:axId val="144827520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144891904"/>
+        <c:axId val="144826944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2955,13 +2954,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144892480"/>
+        <c:crossAx val="144827520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144892480"/>
+        <c:axId val="144827520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -2995,7 +2994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144891904"/>
+        <c:crossAx val="144826944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3032,7 +3031,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3114,7 +3113,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3183,7 +3182,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3197,11 +3196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59938432"/>
-        <c:axId val="59939008"/>
+        <c:axId val="49977536"/>
+        <c:axId val="49978112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59938432"/>
+        <c:axId val="49977536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3213,12 +3212,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59939008"/>
+        <c:crossAx val="49978112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59939008"/>
+        <c:axId val="49978112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,13 +3227,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59938432"/>
+        <c:crossAx val="49977536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3250,7 +3250,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3332,7 +3332,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3401,7 +3401,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3415,11 +3415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60867136"/>
-        <c:axId val="60867712"/>
+        <c:axId val="50480256"/>
+        <c:axId val="50480832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60867136"/>
+        <c:axId val="50480256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3431,12 +3431,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60867712"/>
+        <c:crossAx val="50480832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60867712"/>
+        <c:axId val="50480832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60867136"/>
+        <c:crossAx val="50480256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3468,7 +3468,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3550,7 +3550,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3619,7 +3619,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3633,11 +3633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60870016"/>
-        <c:axId val="60870592"/>
+        <c:axId val="50483136"/>
+        <c:axId val="50483712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60870016"/>
+        <c:axId val="50483136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3649,12 +3649,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60870592"/>
+        <c:crossAx val="50483712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60870592"/>
+        <c:axId val="50483712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60870016"/>
+        <c:crossAx val="50483136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3686,7 +3686,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3768,7 +3768,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3837,7 +3837,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3851,11 +3851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60872896"/>
-        <c:axId val="60873472"/>
+        <c:axId val="50486016"/>
+        <c:axId val="50486592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60872896"/>
+        <c:axId val="50486016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3867,12 +3867,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60873472"/>
+        <c:crossAx val="50486592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60873472"/>
+        <c:axId val="50486592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60872896"/>
+        <c:crossAx val="50486016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3986,7 +3986,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4055,7 +4055,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4069,11 +4069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61711488"/>
-        <c:axId val="61712064"/>
+        <c:axId val="50521792"/>
+        <c:axId val="50522368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61711488"/>
+        <c:axId val="50521792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4085,12 +4085,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61712064"/>
+        <c:crossAx val="50522368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61712064"/>
+        <c:axId val="50522368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,7 +4100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61711488"/>
+        <c:crossAx val="50521792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4204,7 +4204,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4273,7 +4273,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4287,11 +4287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61714368"/>
-        <c:axId val="61714944"/>
+        <c:axId val="50524672"/>
+        <c:axId val="50525248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61714368"/>
+        <c:axId val="50524672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4303,12 +4303,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61714944"/>
+        <c:crossAx val="50525248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61714944"/>
+        <c:axId val="50525248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,7 +4318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61714368"/>
+        <c:crossAx val="50524672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4340,7 +4340,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4422,7 +4422,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4491,7 +4491,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4505,11 +4505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="61717248"/>
-        <c:axId val="61717824"/>
+        <c:axId val="50527552"/>
+        <c:axId val="109125632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61717248"/>
+        <c:axId val="50527552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4521,12 +4521,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61717824"/>
+        <c:crossAx val="109125632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61717824"/>
+        <c:axId val="109125632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61717248"/>
+        <c:crossAx val="50527552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4558,7 +4558,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4640,7 +4640,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4709,7 +4709,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4723,11 +4723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117892800"/>
-        <c:axId val="117893376"/>
+        <c:axId val="109127936"/>
+        <c:axId val="109128512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117892800"/>
+        <c:axId val="109127936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4739,12 +4739,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117893376"/>
+        <c:crossAx val="109128512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117893376"/>
+        <c:axId val="109128512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4754,7 +4754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117892800"/>
+        <c:crossAx val="109127936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5351,7 +5351,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,7 +5392,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5428,7 +5428,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5466,7 +5466,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5502,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,7 +5538,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5579,7 +5579,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5620,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5663,7 +5663,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5706,7 +5706,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5749,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5792,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +5835,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5878,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6156,14 +6156,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6864,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8999,7 +8999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9904,11 +9904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11649,7 +11649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13415,7 +13415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -15180,7 +15180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -16946,7 +16946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -18711,7 +18711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -20476,7 +20476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22241,7 +22241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/Черновик.xlsx
+++ b/Черновик.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7421BC-38DF-40FE-B08F-92047B2CF3FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="29040" windowHeight="15780" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
     <sheet name="Лист2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -610,7 +611,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -852,7 +853,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1000,7 +1001,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1135,7 +1136,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1270,7 +1271,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1454,14 +1455,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1497,7 +1498,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1592,7 +1593,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1664,7 +1665,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1736,7 +1737,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1864,7 +1865,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1946,7 +1947,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2015,7 +2016,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2082,7 +2083,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2177,7 +2178,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2249,7 +2250,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2321,7 +2322,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2447,7 +2448,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2542,7 +2543,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2614,7 +2615,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2686,7 +2687,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2812,7 +2813,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2907,7 +2908,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3031,7 +3032,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3113,7 +3114,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3182,7 +3183,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3234,7 +3235,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3250,7 +3250,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3332,7 +3332,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3401,7 +3401,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3468,7 +3468,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3550,7 +3550,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3619,7 +3619,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3686,7 +3686,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3768,7 +3768,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3837,7 +3837,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3904,7 +3904,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3986,7 +3986,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4055,7 +4055,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4204,7 +4204,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4273,7 +4273,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4340,7 +4340,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4422,7 +4422,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4491,7 +4491,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4558,7 +4558,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4640,7 +4640,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4709,7 +4709,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -5351,7 +5351,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,7 +5392,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5428,7 +5428,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5466,7 +5466,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5502,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,7 +5538,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5579,7 +5579,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5620,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5663,7 +5663,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5706,7 +5706,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5749,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5792,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +5835,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5878,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6156,14 +6156,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6864,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8999,7 +8999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9904,11 +9904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11649,7 +11649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13415,7 +13415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -15180,7 +15180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -16946,7 +16946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -18711,7 +18711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -20476,7 +20476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22241,7 +22241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/Черновик.xlsx
+++ b/Черновик.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7421BC-38DF-40FE-B08F-92047B2CF3FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C917DE0-0C87-47FE-909B-B69F24D5F4EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9907,8 +9907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Черновик.xlsx
+++ b/Черновик.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C917DE0-0C87-47FE-909B-B69F24D5F4EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
     <sheet name="Лист2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -611,12 +610,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -776,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -835,6 +835,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -853,7 +855,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1001,7 +1003,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1136,7 +1138,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1271,7 +1273,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1285,11 +1287,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49974656"/>
-        <c:axId val="49975232"/>
+        <c:axId val="70094208"/>
+        <c:axId val="70094784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49974656"/>
+        <c:axId val="70094208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="11"/>
@@ -1347,13 +1349,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49975232"/>
+        <c:crossAx val="70094784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49975232"/>
+        <c:axId val="70094784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1412,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49974656"/>
+        <c:crossAx val="70094208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1455,14 +1457,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1498,7 +1500,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1593,7 +1595,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1665,7 +1667,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1737,7 +1739,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1751,11 +1753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109131392"/>
-        <c:axId val="109131968"/>
+        <c:axId val="111810176"/>
+        <c:axId val="111810752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109131392"/>
+        <c:axId val="111810176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -1784,13 +1786,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109131968"/>
+        <c:crossAx val="111810752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109131968"/>
+        <c:axId val="111810752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1828,7 +1830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109131392"/>
+        <c:crossAx val="111810176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1865,7 +1867,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1947,7 +1949,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2016,7 +2018,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2030,11 +2032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109166592"/>
-        <c:axId val="109167168"/>
+        <c:axId val="111861760"/>
+        <c:axId val="111862336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109166592"/>
+        <c:axId val="111861760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2046,12 +2048,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109167168"/>
+        <c:crossAx val="111862336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109167168"/>
+        <c:axId val="111862336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109166592"/>
+        <c:crossAx val="111861760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2083,7 +2085,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2178,7 +2180,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2250,7 +2252,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2322,7 +2324,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2336,11 +2338,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109169472"/>
-        <c:axId val="109170048"/>
+        <c:axId val="111864640"/>
+        <c:axId val="111865216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109169472"/>
+        <c:axId val="111864640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2369,13 +2371,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109170048"/>
+        <c:crossAx val="111865216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109170048"/>
+        <c:axId val="111865216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109169472"/>
+        <c:crossAx val="111864640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2448,7 +2450,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2543,7 +2545,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2615,7 +2617,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2687,7 +2689,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2701,11 +2703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109172352"/>
-        <c:axId val="109172928"/>
+        <c:axId val="111867520"/>
+        <c:axId val="111868096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109172352"/>
+        <c:axId val="111867520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2734,13 +2736,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109172928"/>
+        <c:crossAx val="111868096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109172928"/>
+        <c:axId val="111868096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109172352"/>
+        <c:crossAx val="111867520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,7 +2815,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2908,7 +2910,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2922,11 +2924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144826944"/>
-        <c:axId val="144827520"/>
+        <c:axId val="146866752"/>
+        <c:axId val="146867328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144826944"/>
+        <c:axId val="146866752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2955,13 +2957,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144827520"/>
+        <c:crossAx val="146867328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144827520"/>
+        <c:axId val="146867328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -2995,7 +2997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144826944"/>
+        <c:crossAx val="146866752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3032,7 +3034,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3114,7 +3116,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3183,7 +3185,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3197,11 +3199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49977536"/>
-        <c:axId val="49978112"/>
+        <c:axId val="70097088"/>
+        <c:axId val="70097664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49977536"/>
+        <c:axId val="70097088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3213,12 +3215,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49978112"/>
+        <c:crossAx val="70097664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49978112"/>
+        <c:axId val="70097664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,13 +3230,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49977536"/>
+        <c:crossAx val="70097088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3250,7 +3253,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3332,7 +3335,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3401,7 +3404,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3415,11 +3418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50480256"/>
-        <c:axId val="50480832"/>
+        <c:axId val="51184768"/>
+        <c:axId val="51185344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50480256"/>
+        <c:axId val="51184768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3431,12 +3434,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50480832"/>
+        <c:crossAx val="51185344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50480832"/>
+        <c:axId val="51185344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50480256"/>
+        <c:crossAx val="51184768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3468,7 +3471,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3550,7 +3553,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3619,7 +3622,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3633,11 +3636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50483136"/>
-        <c:axId val="50483712"/>
+        <c:axId val="51187648"/>
+        <c:axId val="51188224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50483136"/>
+        <c:axId val="51187648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3649,12 +3652,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50483712"/>
+        <c:crossAx val="51188224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50483712"/>
+        <c:axId val="51188224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50483136"/>
+        <c:crossAx val="51187648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3686,7 +3689,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3768,7 +3771,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3837,7 +3840,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3851,11 +3854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50486016"/>
-        <c:axId val="50486592"/>
+        <c:axId val="51190528"/>
+        <c:axId val="51191104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50486016"/>
+        <c:axId val="51190528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3867,12 +3870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50486592"/>
+        <c:crossAx val="51191104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50486592"/>
+        <c:axId val="51191104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50486016"/>
+        <c:crossAx val="51190528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3904,7 +3907,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3986,7 +3989,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4055,7 +4058,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4069,11 +4072,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50521792"/>
-        <c:axId val="50522368"/>
+        <c:axId val="51226304"/>
+        <c:axId val="51226880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50521792"/>
+        <c:axId val="51226304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4085,12 +4088,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50522368"/>
+        <c:crossAx val="51226880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50522368"/>
+        <c:axId val="51226880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,7 +4103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50521792"/>
+        <c:crossAx val="51226304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4122,7 +4125,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4204,7 +4207,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4273,7 +4276,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4287,11 +4290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50524672"/>
-        <c:axId val="50525248"/>
+        <c:axId val="51229184"/>
+        <c:axId val="51229760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50524672"/>
+        <c:axId val="51229184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4303,12 +4306,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50525248"/>
+        <c:crossAx val="51229760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50525248"/>
+        <c:axId val="51229760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,7 +4321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50524672"/>
+        <c:crossAx val="51229184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4340,7 +4343,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4422,7 +4425,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4491,7 +4494,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4505,11 +4508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50527552"/>
-        <c:axId val="109125632"/>
+        <c:axId val="51232064"/>
+        <c:axId val="111804416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50527552"/>
+        <c:axId val="51232064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4521,12 +4524,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109125632"/>
+        <c:crossAx val="111804416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109125632"/>
+        <c:axId val="111804416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50527552"/>
+        <c:crossAx val="51232064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4558,7 +4561,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4640,7 +4643,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4709,7 +4712,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4723,11 +4726,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109127936"/>
-        <c:axId val="109128512"/>
+        <c:axId val="111806720"/>
+        <c:axId val="111807296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109127936"/>
+        <c:axId val="111806720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4739,12 +4742,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109128512"/>
+        <c:crossAx val="111807296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109128512"/>
+        <c:axId val="111807296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4754,7 +4757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109127936"/>
+        <c:crossAx val="111806720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5351,7 +5354,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5392,7 +5395,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5428,7 +5431,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5466,7 +5469,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5502,7 +5505,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5538,7 +5541,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5579,7 +5582,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5620,7 +5623,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5663,7 +5666,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5706,7 +5709,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5749,7 +5752,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5792,7 +5795,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +5838,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5878,7 +5881,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6156,14 +6159,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6864,7 +6867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8999,11 +9002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9898,17 +9901,104 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13.8</v>
+      </c>
+      <c r="B30" s="34">
+        <v>2.2222222222222199E-2</v>
+      </c>
+      <c r="C30" s="35">
+        <f>B30*$A$30</f>
+        <v>0.30666666666666637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="34">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="C31" s="35">
+        <f t="shared" ref="C31:C38" si="4">B31*$A$30</f>
+        <v>0.61333333333333273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="34">
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="C32" s="35">
+        <f t="shared" si="4"/>
+        <v>0.92000000000000037</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="34">
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="C33" s="35">
+        <f t="shared" si="4"/>
+        <v>1.226666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="C34" s="35">
+        <f t="shared" si="4"/>
+        <v>1.5333333333333319</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C35" s="35">
+        <f t="shared" si="4"/>
+        <v>1.8399999999999954</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.155555555555556</v>
+      </c>
+      <c r="C36" s="35">
+        <f t="shared" si="4"/>
+        <v>2.1466666666666727</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.17777777777777801</v>
+      </c>
+      <c r="C37" s="35">
+        <f t="shared" si="4"/>
+        <v>2.4533333333333367</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.2</v>
+      </c>
+      <c r="C38" s="35">
+        <f t="shared" si="4"/>
+        <v>2.7600000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="35"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11649,7 +11739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13415,7 +13505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -15180,7 +15270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -16946,7 +17036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -18711,7 +18801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -20476,7 +20566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22241,7 +22331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/Черновик.xlsx
+++ b/Черновик.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D516EF43-60D6-43F3-BF5D-C0D852C6A038}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
     <sheet name="Лист2" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -610,13 +611,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -829,14 +830,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -855,7 +856,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1003,7 +1004,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1138,7 +1139,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1273,7 +1274,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B3D3-4661-AB45-63880700E643}"/>
             </c:ext>
@@ -1457,14 +1458,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1500,7 +1501,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1595,7 +1596,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1667,7 +1668,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1739,7 +1740,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8F06-40CA-B413-6C07B89771C5}"/>
             </c:ext>
@@ -1867,7 +1868,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1949,7 +1950,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2018,7 +2019,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-46D6-4870-89F9-59CD719C989F}"/>
             </c:ext>
@@ -2085,7 +2086,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2180,7 +2181,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2252,7 +2253,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2324,7 +2325,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-001B-4440-A1AC-8572DEF38482}"/>
             </c:ext>
@@ -2450,7 +2451,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2545,7 +2546,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2617,7 +2618,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2689,7 +2690,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -2815,7 +2816,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2910,7 +2911,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A45C-4D14-8A36-0BAEB0B4315C}"/>
             </c:ext>
@@ -3034,7 +3035,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3116,7 +3117,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3185,7 +3186,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-06BC-4342-9122-CF435FB8F99C}"/>
             </c:ext>
@@ -3237,7 +3238,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3253,7 +3253,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3335,7 +3335,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3404,7 +3404,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8382-4CF4-BACD-692918FE94EF}"/>
             </c:ext>
@@ -3471,7 +3471,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3553,7 +3553,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3622,7 +3622,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B6A-4222-9C4F-10E6AD2F7FAC}"/>
             </c:ext>
@@ -3689,7 +3689,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3771,7 +3771,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3840,7 +3840,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A94-4C66-9C18-15CF3E93214B}"/>
             </c:ext>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3989,7 +3989,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4058,7 +4058,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C17C-4D74-93EA-1ED41F7C0803}"/>
             </c:ext>
@@ -4125,7 +4125,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4207,7 +4207,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4276,7 +4276,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-91C6-4B38-8F28-2CCB79346E5E}"/>
             </c:ext>
@@ -4343,7 +4343,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4425,7 +4425,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4494,7 +4494,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2223-4EFB-B12D-E467CC54C56E}"/>
             </c:ext>
@@ -4561,7 +4561,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4643,7 +4643,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -4712,7 +4712,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA5-4024-A456-3BB79B9F971B}"/>
             </c:ext>
@@ -5354,7 +5354,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1376E361-9B03-4C46-9E16-696541727A54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5395,7 +5395,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5431,7 +5431,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5469,7 +5469,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5505,7 +5505,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5541,7 +5541,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69D8E43-BE20-4D14-A4F1-21A80679D980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5582,7 +5582,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5623,7 +5623,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5666,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5709,7 +5709,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5752,7 +5752,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5795,7 +5795,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5838,7 +5838,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5881,7 +5881,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,14 +6159,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6867,7 +6867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S117"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8649,17 +8649,17 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="32"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="18" t="s">
         <v>70</v>
       </c>
@@ -8776,17 +8776,17 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="18" t="s">
         <v>70</v>
       </c>
@@ -8883,17 +8883,17 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="32" t="s">
+      <c r="A111" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="18" t="s">
         <v>70</v>
       </c>
@@ -9002,7 +9002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -9905,37 +9905,37 @@
       <c r="A30">
         <v>13.8</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="32">
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <f>B30*$A$30</f>
         <v>0.30666666666666637</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
+      <c r="B31" s="32">
         <v>4.4444444444444398E-2</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <f t="shared" ref="C31:C38" si="4">B31*$A$30</f>
         <v>0.61333333333333273</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
+      <c r="B32" s="32">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="33">
         <f t="shared" si="4"/>
         <v>0.92000000000000037</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
+      <c r="B33" s="32">
         <v>8.8888888888888906E-2</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <f t="shared" si="4"/>
         <v>1.226666666666667</v>
       </c>
@@ -9944,7 +9944,7 @@
       <c r="B34">
         <v>0.11111111111111099</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="33">
         <f t="shared" si="4"/>
         <v>1.5333333333333319</v>
       </c>
@@ -9953,7 +9953,7 @@
       <c r="B35">
         <v>0.133333333333333</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="33">
         <f t="shared" si="4"/>
         <v>1.8399999999999954</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="B36">
         <v>0.155555555555556</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="33">
         <f t="shared" si="4"/>
         <v>2.1466666666666727</v>
       </c>
@@ -9971,7 +9971,7 @@
       <c r="B37">
         <v>0.17777777777777801</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="33">
         <f t="shared" si="4"/>
         <v>2.4533333333333367</v>
       </c>
@@ -9980,13 +9980,13 @@
       <c r="B38">
         <v>0.2</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="33">
         <f t="shared" si="4"/>
         <v>2.7600000000000002</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="35"/>
+      <c r="C39" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9994,10 +9994,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -11739,7 +11739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13505,7 +13505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -15270,7 +15270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -17036,7 +17036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -18801,7 +18801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -20566,7 +20566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22331,7 +22331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
